--- a/result/inspect_male.xlsx
+++ b/result/inspect_male.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +522,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48.64486311731218</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.540697271226987</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.71308220117406</v>
-      </c>
-      <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,17 +545,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>86.20954045685237</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.356742050289681</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25.68250379840385</v>
-      </c>
-      <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -580,17 +568,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71.91594265877349</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.903942545960347</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24.76493302485976</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,17 +626,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1579089621431619</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3148322361048044</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5015654181298452</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.6159732502725712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -673,17 +649,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.1301208458478751</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.39088934621608</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.332884093944102</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7392217765621463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -737,17 +707,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.4042346678761896</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.09638166006592812</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-4.194103604311091</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.739527579143086e-05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -836,17 +800,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-5.147381009166632</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.54954711487909</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.5390183374398971</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.5898742016338643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -865,17 +823,11 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55.69720982815154</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.528167492202186</v>
-      </c>
-      <c r="F14" t="n">
-        <v>22.03066450301277</v>
-      </c>
-      <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -894,17 +846,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-97.48119006728864</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.22204053473136</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-30.254489047074</v>
-      </c>
-      <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -958,17 +904,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3138528656439473</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.07048462448710208</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.452784815458953</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.47636924183881e-06</v>
-      </c>
+        <v>0.313322716056664</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1022,17 +962,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2031512783064545</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.03529191303384784</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5.756312447723067</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8.597119904862893e-09</v>
-      </c>
+        <v>0.1346002731219055</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1086,22 +1020,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.01023441044766625</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0698028359969594</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1466188343402758</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8834328866932455</v>
-      </c>
+        <v>0.005408328826392662</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1115,17 +1043,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.362548060495478</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5390879055324543</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.527506268476139</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01148757732738459</v>
-      </c>
+        <v>0.004311484411543367</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1144,17 +1066,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.671927983333196</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5838268892675498</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.86373925912847</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.004186724899552408</v>
-      </c>
+        <v>0.007030827474310464</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1208,17 +1124,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.1136719732041375</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.02425301943318886</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.686920468298353</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.773466823535742e-06</v>
-      </c>
+        <v>0.05367057371992612</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1237,17 +1147,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3748913443791072</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.05047785213755305</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.426848181853989</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.112443470674407e-13</v>
-      </c>
+        <v>0.2879395434916719</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1301,17 +1205,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-22.85213365574329</v>
-      </c>
-      <c r="E28" t="n">
-        <v>54.04656058196921</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-0.4228230882719057</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.6724243410696853</v>
-      </c>
+        <v>0.2647090459287937</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1330,17 +1228,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20.56235834760349</v>
-      </c>
-      <c r="E29" t="n">
-        <v>48.70751086798003</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.4221599088349351</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.6729083022495903</v>
-      </c>
+        <v>0.1638162848230603</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1394,17 +1286,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>77.78746648880862</v>
-      </c>
-      <c r="E31" t="n">
-        <v>56.57963382302348</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.374831564518783</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.1691836698808888</v>
-      </c>
+        <v>0.1762589928057558</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1423,17 +1309,11 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.4544839452299164</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.4968517763124626</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.9147274235428789</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.3603347439090161</v>
-      </c>
+        <v>0.003597122302158262</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1487,17 +1367,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11.58468107503693</v>
-      </c>
-      <c r="E34" t="n">
-        <v>21.50433785492026</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.5387136843362875</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.5900844299416017</v>
-      </c>
+        <v>-0.02173582611339106</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1516,17 +1390,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-13.14857867871866</v>
-      </c>
-      <c r="E35" t="n">
-        <v>24.40857763820153</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-0.5386868040249696</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.5901029805719247</v>
-      </c>
+        <v>-0.08706198843559936</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1580,17 +1448,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.005419622768534833</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.008280999653532062</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-0.6544647982890275</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.5128123991237521</v>
-      </c>
+        <v>-0.004031214172121775</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1609,17 +1471,11 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.9109254107602887</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.04909513428715068</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-18.55429105079654</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.5147564628869419</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1673,17 +1529,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.827133590364316</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.4376401861419518</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4.174967583455641</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.980284887232898e-05</v>
-      </c>
+        <v>0.150298482445622</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1702,17 +1552,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4.933065635533081</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.165072045179442</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4.234129259164455</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.294389544132969e-05</v>
-      </c>
+        <v>0.2289096043012419</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1731,17 +1575,11 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.715625602514812</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8866582275226452</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4.190595076179705</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.782237991194592e-05</v>
-      </c>
+        <v>0.1262135922330095</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1760,17 +1598,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.495706624010986</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.1479938926995086</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-3.349507300373096</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.0008095542228416797</v>
-      </c>
+        <v>0.007793764988009669</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1824,17 +1656,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.003495120994222047</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.004337333880832327</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.8058224451804288</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.4203452342418215</v>
-      </c>
+        <v>0.002695417789757406</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1853,51 +1679,39 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.142526475172357</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.03073774270937924</v>
-      </c>
-      <c r="F46" t="n">
-        <v>37.17014895783348</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+        <v>0.8848956773485097</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~~</t>
+          <t>~</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.373228389725513e-11</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.006989991542002921</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3.395180630942461e-09</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.9999999972910378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1907,26 +1721,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.0349112602603595</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.05316784082701951</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.6566236227889327</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.5114229556460972</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1936,21 +1744,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.92294821344945e-18</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0006531427823062662</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4.475205557126773e-15</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.9999999999999964</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1969,22 +1771,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.04521841986020093</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.007610796798699535</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5.941351615376999</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.82681544838681e-09</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1994,26 +1790,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>health</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.415533615606515e-16</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3.263465072382263e-05</v>
-      </c>
-      <c r="F51" t="n">
-        <v>7.40174473454921e-12</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.9999999999940943</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2023,26 +1813,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.380168412151156e-19</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.004475671284477911</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3.083712641340196e-17</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2052,26 +1836,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.006137079598439837</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.004042185583641033</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.518257751885195</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.1289494336790922</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2081,26 +1859,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3.164662011840374e-05</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5.132456479526963e-05</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.6165979122870724</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.537499971914233</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2110,26 +1882,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3.843576932330038e-05</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.957884448312522e-06</v>
-      </c>
-      <c r="F55" t="n">
-        <v>7.752452073369803</v>
-      </c>
-      <c r="G55" t="n">
-        <v>9.103828801926284e-15</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2139,26 +1905,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.08456595169941344</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.1186403821835511</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.7127923068206814</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.4759742868451702</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2168,26 +1928,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.069108739306192</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.2789792307477798</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3.832216242179412</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.0001269940371320111</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2197,26 +1951,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.04521841989708376</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.007610797338859989</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5.94135119854809</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2.826822553814168e-09</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2226,26 +1974,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.072694396898099e-17</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.0002761056584629434</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3.885086596865165e-14</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.9999999999999689</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2255,26 +1997,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>education</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.00287104869692349</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.01065830963597937</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.2693718605211362</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.787643538160161</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2284,26 +2020,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>integration</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6.349722054615356e-05</v>
-      </c>
-      <c r="E61" t="n">
-        <v>5.187350154943534e-06</v>
-      </c>
-      <c r="F61" t="n">
-        <v>12.2407792820505</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2313,26 +2043,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.1145017425512021</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.007285477193536921</v>
-      </c>
-      <c r="F62" t="n">
-        <v>15.7164368913353</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>removal_of_religious_barriers</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2342,26 +2066,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.3955933389055727</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.02412911246067221</v>
-      </c>
-      <c r="F63" t="n">
-        <v>16.39485660875225</v>
-      </c>
-      <c r="G63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
+          <t>removal_of_religious_barriers</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2371,26 +2089,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
+          <t>removal_of_religious_barriers</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.01422872549428472</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.0008503365415062975</v>
-      </c>
-      <c r="F64" t="n">
-        <v>16.73305189536688</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003565051020408161</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2400,26 +2112,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.1435969263877988</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.008672255841008432</v>
-      </c>
-      <c r="F65" t="n">
-        <v>16.55819765973865</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+        <v>0.4946364795918369</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2429,26 +2135,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7.600137578013953</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.4542373968896506</v>
-      </c>
-      <c r="F66" t="n">
-        <v>16.73164215460567</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+        <v>0.07548469387755125</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2458,26 +2158,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.3731956385973025</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.02420086054140806</v>
-      </c>
-      <c r="F67" t="n">
-        <v>15.42075902397512</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5752535076530615</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2487,26 +2181,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.01691472586456196</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.004235509136593735</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3.993551970984887</v>
-      </c>
-      <c r="G68" t="n">
-        <v>6.509080350247665e-05</v>
-      </c>
+        <v>0.07445827930447291</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2516,26 +2204,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.2609172676329386</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.02309072157566516</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11.29965846959994</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+        <v>0.2616055484693874</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2545,26 +2227,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.4288050804628583</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.1197510114983707</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3.580805498792065</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.0003425365794060831</v>
-      </c>
+        <v>0.172442602040816</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2574,26 +2250,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.1672153428310978</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.01675735187445912</v>
-      </c>
-      <c r="F71" t="n">
-        <v>9.978625744320741</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+        <v>0.8017713647959188</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2603,26 +2273,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.01420478661650292</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.0008489935770019275</v>
-      </c>
-      <c r="F72" t="n">
-        <v>16.73132398708282</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+        <v>3.828659119897963</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2632,26 +2296,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.007121659062397696</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.0004256137117530269</v>
-      </c>
-      <c r="F73" t="n">
-        <v>16.73268235727691</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+        <v>0.4716836734693869</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2661,26 +2319,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.4904395478374347</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.03239212126310479</v>
-      </c>
-      <c r="F74" t="n">
-        <v>15.14070485963862</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+        <v>0.150942283163265</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2690,21 +2342,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.1265229698327598</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.009477112553608745</v>
-      </c>
-      <c r="F75" t="n">
-        <v>13.35037112872859</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
+        <v>0.007117346938775503</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2723,22 +2369,16 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.2018654114159722</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.01497646464621954</v>
-      </c>
-      <c r="F76" t="n">
-        <v>13.47884271562378</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
+        <v>0.4471874999999992</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2748,26 +2388,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9405563767844362</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.05628733533936947</v>
-      </c>
-      <c r="F77" t="n">
-        <v>16.70991122775474</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
+        <v>0.3419499362244898</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2777,26 +2411,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.02840077449871074</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.001698386723500348</v>
-      </c>
-      <c r="F78" t="n">
-        <v>16.72220707393131</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
+        <v>0.4081568877551019</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2806,26 +2434,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5347290547332966</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.04394741509931684</v>
-      </c>
-      <c r="F79" t="n">
-        <v>12.16747454913318</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
+        <v>0.2152279974489796</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2835,26 +2457,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.8291425183905541</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.06297510813149117</v>
-      </c>
-      <c r="F80" t="n">
-        <v>13.16619443742994</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
+        <v>0.4387500000000001</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2864,26 +2480,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.2576485883644994</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.05348678737127469</v>
-      </c>
-      <c r="F81" t="n">
-        <v>4.817051107804123</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.456953806044936e-06</v>
-      </c>
+        <v>0.1450749362244901</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2893,26 +2503,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.00389515961457466</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.006186142509271063</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.6296588880885614</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.5289177861194363</v>
-      </c>
+        <v>0.4742602040816321</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2922,26 +2526,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.5565697316632396</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.03427844835686207</v>
-      </c>
-      <c r="F83" t="n">
-        <v>16.23672477390842</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
+        <v>0.01418367346938774</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
+          <t>lt_12_education</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2951,26 +2549,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
+          <t>lt_12_education</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.02913335478590139</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.0117141725027001</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.487017736566469</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.0128818976475007</v>
-      </c>
+        <v>0.007117346938775499</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>removal_of_religious_barriers</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2980,26 +2572,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>removal_of_religious_barriers</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.007125954051185451</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.0004258782802325265</v>
-      </c>
-      <c r="F85" t="n">
-        <v>16.73237252334718</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
+        <v>0.1037611607142859</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3009,26 +2595,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.2085020910012455</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.01246113633956159</v>
-      </c>
-      <c r="F86" t="n">
-        <v>16.73218920834382</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
+        <v>0.3183529974489799</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3038,26 +2618,20 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>6.478656469600398e-21</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.3724576757183459</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1.739434274535449e-20</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
+        <v>0.6269626913265307</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3067,26 +2641,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.9400011380855192</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.05629341158931162</v>
-      </c>
-      <c r="F88" t="n">
-        <v>16.69824427992739</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
+        <v>0.01420886389892506</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3096,26 +2664,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.1410419524480995</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.008457845138840606</v>
-      </c>
-      <c r="F89" t="n">
-        <v>16.67587312325247</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
+        <v>0.6510539840822335</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3125,26 +2687,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.5572309818982425</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.04267010278424622</v>
-      </c>
-      <c r="F90" t="n">
-        <v>13.05904944037099</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
+        <v>0.1109119897959182</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3154,26 +2710,20 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.1462825350022313</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.01112803218087338</v>
-      </c>
-      <c r="F91" t="n">
-        <v>13.14540905448792</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
+        <v>0.003565051020408163</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3183,21 +2733,61 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3.859294647191786e-21</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.2708461297036097</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1.424903007253901e-20</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
+        <v>0.4135204081632654</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>rights_in_home</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>~~</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>rights_in_home</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4669387755102041</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>gt_18_education</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>~~</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>gt_18_education</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.01065688775510202</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
